--- a/src/test/resources/IPD Patient.xlsx
+++ b/src/test/resources/IPD Patient.xlsx
@@ -201,7 +201,7 @@
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="7.800000000000001" customWidth="1"/>
-    <col min="5" max="5" width="14.3" customWidth="1"/>
+    <col min="5" max="5" width="16.900000000000002" customWidth="1"/>
     <col min="6" max="6" width="24.7" customWidth="1"/>
     <col min="7" max="7" width="44.2" customWidth="1"/>
     <col min="8" max="8" width="20.8" customWidth="1"/>
@@ -259,16 +259,24 @@
     <row r="3">
       <c t="inlineStr" r="A3">
         <is>
-          <t>IPDN43</t>
+          <t>IPDN47</t>
         </is>
       </c>
       <c r="B3" s="65">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c t="inlineStr" r="C3">
         <is>
-          <t>Daniel Knott (110)</t>
-        </is>
+          <t>Ashley Joy (75)</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D3">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E3" s="65">
+        <v>14444444444</v>
       </c>
       <c t="inlineStr" r="F3">
         <is>
@@ -277,7 +285,7 @@
       </c>
       <c t="inlineStr" r="G3">
         <is>
-          <t>147-VIP Ward-1st Floor</t>
+          <t>104-Private Ward-Ground Floor</t>
         </is>
       </c>
       <c r="H3" s="66">
@@ -287,24 +295,24 @@
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t>IPDN41</t>
+          <t>IPDN46</t>
         </is>
       </c>
       <c r="B4" s="65">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c t="inlineStr" r="C4">
         <is>
-          <t>Martha Lane Fox (98)</t>
+          <t>Mark Zuckerberg (91)</t>
         </is>
       </c>
       <c t="inlineStr" r="D4">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E4" s="65">
-        <v>33158769314</v>
+        <v>3314181714151</v>
       </c>
       <c t="inlineStr" r="F4">
         <is>
@@ -313,26 +321,34 @@
       </c>
       <c t="inlineStr" r="G4">
         <is>
-          <t>160-General Ward Male-Ground Floor</t>
+          <t>148-VIP Ward-1st Floor</t>
         </is>
       </c>
       <c r="H4" s="66">
-        <v>5000000.00</v>
+        <v>20000.00</v>
       </c>
     </row>
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t>IPDN40</t>
+          <t>IPDN41</t>
         </is>
       </c>
       <c r="B5" s="65">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="inlineStr" r="C5">
         <is>
-          <t>Steve Jobs (97)</t>
-        </is>
+          <t>Martha Lane Fox (98)</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D5">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E5" s="65">
+        <v>33158769314</v>
       </c>
       <c t="inlineStr" r="F5">
         <is>
@@ -341,34 +357,26 @@
       </c>
       <c t="inlineStr" r="G5">
         <is>
-          <t>141-NICU-3rd Floor</t>
+          <t>160-ICU-3rd Floor</t>
         </is>
       </c>
       <c r="H5" s="66">
-        <v>20000.00</v>
+        <v>5000000.00</v>
       </c>
     </row>
     <row r="6">
       <c t="inlineStr" r="A6">
         <is>
-          <t>IPDN36</t>
+          <t>IPDN40</t>
         </is>
       </c>
       <c r="B6" s="65">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c t="inlineStr" r="C6">
         <is>
-          <t>Ashley Joy (75)</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="D6">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E6" s="65">
-        <v>14444444444</v>
+          <t>Steve Jobs (97)</t>
+        </is>
       </c>
       <c t="inlineStr" r="F6">
         <is>
@@ -377,7 +385,7 @@
       </c>
       <c t="inlineStr" r="G6">
         <is>
-          <t>149-VIP Ward-1st Floor</t>
+          <t>141-NICU-3rd Floor</t>
         </is>
       </c>
       <c r="H6" s="66">
